--- a/medicine/Œil et vue/Muscle_droit_latéral_de_l'œil/Muscle_droit_latéral_de_l'œil.xlsx
+++ b/medicine/Œil et vue/Muscle_droit_latéral_de_l'œil/Muscle_droit_latéral_de_l'œil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_droit_lat%C3%A9ral_de_l%27%C5%93il</t>
+          <t>Muscle_droit_latéral_de_l'œil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle droit latéral du bulbe de l'œil ou muscle droit latéral de l'œil (Musculus rectus lateralis bulbi oculi) ou  muscle droit externe de l’œil est un des quatre muscles droits de l'œil. Il permet par sa contraction d'orienter le regard en abduction, c'est-à-dire en dehors.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_droit_lat%C3%A9ral_de_l%27%C5%93il</t>
+          <t>Muscle_droit_latéral_de_l'œil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Origine dorsale: il a une double origine
 une inférieure par la languette externe du ligament de Zinn fixé sur le corps du sphénoïde et qui présente à son origine, une ouverture, l'anneau de Zinn qui laisse passer le nerf oculomoteur, le nerf abducens et le nerf nasal
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_droit_lat%C3%A9ral_de_l%27%C5%93il</t>
+          <t>Muscle_droit_latéral_de_l'œil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est innervé par le nerf abducens, VIe paire des nerfs crâniens qui l'aborde par sa face interne.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_droit_lat%C3%A9ral_de_l%27%C5%93il</t>
+          <t>Muscle_droit_latéral_de_l'œil</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est vascularisé par une branche de l'artère musculaire inférieure branche de l'artère ophtalmique.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_droit_lat%C3%A9ral_de_l%27%C5%93il</t>
+          <t>Muscle_droit_latéral_de_l'œil</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En faisant tourner la partie antérieure du globe oculaire vers l'extérieur, il porte le regard vers l'extérieur.
 </t>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muscle_droit_lat%C3%A9ral_de_l%27%C5%93il</t>
+          <t>Muscle_droit_latéral_de_l'œil</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>Rapports</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est en rapport, en dehors avec la paroi latérale de l'orbite, en dedans, en arrière avec le nerf optique, en avant avec le globe oculaire
 </t>
